--- a/data/population/hospitals.xlsx
+++ b/data/population/hospitals.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,7 +460,7 @@
         <v>25549</v>
       </c>
       <c r="C2" t="n">
-        <v>353</v>
+        <v>352.6</v>
       </c>
     </row>
     <row r="3">
@@ -473,7 +473,7 @@
         <v>56744</v>
       </c>
       <c r="C3" t="n">
-        <v>311</v>
+        <v>311.2</v>
       </c>
     </row>
     <row r="4">
@@ -486,7 +486,7 @@
         <v>11029</v>
       </c>
       <c r="C4" t="n">
-        <v>188</v>
+        <v>188.5</v>
       </c>
     </row>
     <row r="5">
@@ -499,7 +499,7 @@
         <v>16952</v>
       </c>
       <c r="C5" t="n">
-        <v>483</v>
+        <v>482.9</v>
       </c>
     </row>
     <row r="6">
@@ -512,7 +512,7 @@
         <v>5676</v>
       </c>
       <c r="C6" t="n">
-        <v>334</v>
+        <v>333.7</v>
       </c>
     </row>
     <row r="7">
@@ -525,7 +525,7 @@
         <v>25994</v>
       </c>
       <c r="C7" t="n">
-        <v>169</v>
+        <v>168.9</v>
       </c>
     </row>
     <row r="8">
@@ -538,7 +538,7 @@
         <v>18175</v>
       </c>
       <c r="C8" t="n">
-        <v>942</v>
+        <v>942.2</v>
       </c>
     </row>
     <row r="9">
@@ -551,7 +551,7 @@
         <v>58314</v>
       </c>
       <c r="C9" t="n">
-        <v>605</v>
+        <v>605.2</v>
       </c>
     </row>
     <row r="10">
@@ -577,7 +577,7 @@
         <v>83291</v>
       </c>
       <c r="C11" t="n">
-        <v>453</v>
+        <v>453.3</v>
       </c>
     </row>
     <row r="12">
@@ -590,7 +590,7 @@
         <v>16275</v>
       </c>
       <c r="C12" t="n">
-        <v>425</v>
+        <v>425.1</v>
       </c>
     </row>
     <row r="13">
@@ -603,7 +603,7 @@
         <v>18143</v>
       </c>
       <c r="C13" t="n">
-        <v>486</v>
+        <v>486.4</v>
       </c>
     </row>
     <row r="14">
@@ -629,7 +629,7 @@
         <v>25204</v>
       </c>
       <c r="C15" t="n">
-        <v>237</v>
+        <v>236.9</v>
       </c>
     </row>
     <row r="16">
@@ -639,10 +639,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>63188</v>
+        <v>67069</v>
       </c>
       <c r="C16" t="n">
-        <v>749</v>
+        <v>777.3</v>
       </c>
     </row>
     <row r="17">
@@ -655,7 +655,7 @@
         <v>60792</v>
       </c>
       <c r="C17" t="n">
-        <v>240</v>
+        <v>239.6</v>
       </c>
     </row>
     <row r="18">
@@ -668,7 +668,7 @@
         <v>42969</v>
       </c>
       <c r="C18" t="n">
-        <v>512</v>
+        <v>512.2</v>
       </c>
     </row>
     <row r="19">
@@ -707,7 +707,7 @@
         <v>16647</v>
       </c>
       <c r="C21" t="n">
-        <v>29</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="22">
@@ -720,7 +720,7 @@
         <v>26237</v>
       </c>
       <c r="C22" t="n">
-        <v>118</v>
+        <v>118.4</v>
       </c>
     </row>
     <row r="23">
@@ -733,7 +733,7 @@
         <v>36275</v>
       </c>
       <c r="C23" t="n">
-        <v>290</v>
+        <v>289.7</v>
       </c>
     </row>
     <row r="24">
@@ -746,7 +746,7 @@
         <v>16622</v>
       </c>
       <c r="C24" t="n">
-        <v>648</v>
+        <v>647.7</v>
       </c>
     </row>
     <row r="25">
@@ -759,7 +759,7 @@
         <v>7689</v>
       </c>
       <c r="C25" t="n">
-        <v>256</v>
+        <v>256.3</v>
       </c>
     </row>
     <row r="26">
@@ -772,7 +772,7 @@
         <v>21420</v>
       </c>
       <c r="C26" t="n">
-        <v>316</v>
+        <v>316.3</v>
       </c>
     </row>
     <row r="27">
@@ -785,7 +785,7 @@
         <v>14699</v>
       </c>
       <c r="C27" t="n">
-        <v>173</v>
+        <v>173.1</v>
       </c>
     </row>
     <row r="28">
@@ -798,7 +798,7 @@
         <v>18344</v>
       </c>
       <c r="C28" t="n">
-        <v>441</v>
+        <v>440.8</v>
       </c>
     </row>
     <row r="29">
@@ -811,7 +811,7 @@
         <v>16792</v>
       </c>
       <c r="C29" t="n">
-        <v>78</v>
+        <v>77.59999999999999</v>
       </c>
     </row>
     <row r="30">
@@ -824,7 +824,7 @@
         <v>8452</v>
       </c>
       <c r="C30" t="n">
-        <v>109</v>
+        <v>108.9</v>
       </c>
     </row>
     <row r="31">
@@ -837,7 +837,7 @@
         <v>22206</v>
       </c>
       <c r="C31" t="n">
-        <v>317</v>
+        <v>317.1</v>
       </c>
     </row>
     <row r="32">
@@ -850,7 +850,7 @@
         <v>18432</v>
       </c>
       <c r="C32" t="n">
-        <v>45</v>
+        <v>44.6</v>
       </c>
     </row>
     <row r="33">
@@ -863,7 +863,7 @@
         <v>22983</v>
       </c>
       <c r="C33" t="n">
-        <v>493</v>
+        <v>493.2</v>
       </c>
     </row>
     <row r="34">
@@ -876,397 +876,384 @@
         <v>19325</v>
       </c>
       <c r="C34" t="n">
-        <v>119</v>
+        <v>118.7</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t xml:space="preserve">ZD Novo mesto </t>
+          <t>ZD Tržič</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3881</v>
+        <v>15011</v>
       </c>
       <c r="C35" t="n">
-        <v>28</v>
+        <v>155.4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ZD Tržič</t>
+          <t>ZD Gornja Radgona</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>15011</v>
+        <v>19943</v>
       </c>
       <c r="C36" t="n">
-        <v>155</v>
+        <v>213.5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ZD Gornja Radgona</t>
+          <t>ZD Murska Sobota</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19943</v>
+        <v>54775</v>
       </c>
       <c r="C37" t="n">
-        <v>214</v>
+        <v>691.7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ZD Murska Sobota</t>
+          <t>ZD Lenart</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>54775</v>
+        <v>20062</v>
       </c>
       <c r="C38" t="n">
-        <v>692</v>
+        <v>204.5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ZD Lenart</t>
+          <t>ZD Šmarje pri Jelšah</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>20062</v>
+        <v>32901</v>
       </c>
       <c r="C39" t="n">
-        <v>204</v>
+        <v>400.2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ZD Šmarje pri Jelšah</t>
+          <t>ZD Žalec</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>32901</v>
+        <v>43211</v>
       </c>
       <c r="C40" t="n">
-        <v>400</v>
+        <v>334.8</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ZD Žalec</t>
+          <t>ZD Brežice</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>43211</v>
+        <v>24370</v>
       </c>
       <c r="C41" t="n">
-        <v>335</v>
+        <v>268.1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ZD Brežice</t>
+          <t>ZD Celje</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>24370</v>
+        <v>64415</v>
       </c>
       <c r="C42" t="n">
-        <v>268</v>
+        <v>230</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ZD Celje</t>
+          <t>ZD Ptuj</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>64415</v>
+        <v>69379</v>
       </c>
       <c r="C43" t="n">
-        <v>230</v>
+        <v>646.7</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ZD Ptuj</t>
+          <t>ZD Lendava</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>69379</v>
+        <v>22224</v>
       </c>
       <c r="C44" t="n">
-        <v>647</v>
+        <v>256.8</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ZD Lendava</t>
+          <t>ZD Ravne na Koroškem</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>22224</v>
+        <v>24728</v>
       </c>
       <c r="C45" t="n">
-        <v>257</v>
+        <v>303.9</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ZD Ravne na Koroškem</t>
+          <t>ZD Šentjur</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24728</v>
+        <v>20320</v>
       </c>
       <c r="C46" t="n">
-        <v>304</v>
+        <v>239.8</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ZD Šentjur</t>
+          <t>ZD Dravograd</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>20320</v>
+        <v>8882</v>
       </c>
       <c r="C47" t="n">
-        <v>240</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ZD Dravograd</t>
+          <t>ZD Maribor</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>8882</v>
+        <v>186034</v>
       </c>
       <c r="C48" t="n">
-        <v>105</v>
+        <v>738.4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ZD Maribor</t>
+          <t>ZSDZ NAZARJE</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>186034</v>
+        <v>16480</v>
       </c>
       <c r="C49" t="n">
-        <v>738</v>
+        <v>508.3</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ZSDZ NAZARJE</t>
+          <t>ZD Hrastnik</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>16480</v>
+        <v>8963</v>
       </c>
       <c r="C50" t="n">
-        <v>508</v>
+        <v>58.6</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ZD Hrastnik</t>
+          <t>ZD Krško</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>8963</v>
+        <v>28286</v>
       </c>
       <c r="C51" t="n">
-        <v>59</v>
+        <v>344.8</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ZD Krško</t>
+          <t>ZD Ljutomer</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>28286</v>
+        <v>17284</v>
       </c>
       <c r="C52" t="n">
-        <v>345</v>
+        <v>175.2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ZD Ljutomer</t>
+          <t>ZD Laško</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>17284</v>
+        <v>12976</v>
       </c>
       <c r="C53" t="n">
-        <v>175</v>
+        <v>197.5</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ZD Laško</t>
+          <t>ZD Slovenska Bistrica</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>12976</v>
+        <v>36714</v>
       </c>
       <c r="C54" t="n">
-        <v>198</v>
+        <v>367.7</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ZD Slovenska Bistrica</t>
+          <t>ZD Slovenj Gradec</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>36714</v>
+        <v>21248</v>
       </c>
       <c r="C55" t="n">
-        <v>368</v>
+        <v>285.9</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ZD Slovenj Gradec</t>
+          <t>ZD Radlje ob Dravi</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>21248</v>
+        <v>15713</v>
       </c>
       <c r="C56" t="n">
-        <v>286</v>
+        <v>346</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ZD Radlje ob Dravi</t>
+          <t>ZD Ormož</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>15713</v>
+        <v>15809</v>
       </c>
       <c r="C57" t="n">
-        <v>346</v>
+        <v>212.4</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ZD Ormož</t>
+          <t>ZD Radeče</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>15809</v>
+        <v>4146</v>
       </c>
       <c r="C58" t="n">
-        <v>212</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ZD Radeče</t>
+          <t>ZD Sevnica</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>4146</v>
+        <v>17661</v>
       </c>
       <c r="C59" t="n">
-        <v>52</v>
+        <v>272.2</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ZD Sevnica</t>
+          <t>ZD Slovenske Konjice</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>17661</v>
+        <v>24063</v>
       </c>
       <c r="C60" t="n">
-        <v>272</v>
+        <v>224.2</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ZD Slovenske Konjice</t>
+          <t>ZD Velenje</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>24063</v>
+        <v>45694</v>
       </c>
       <c r="C61" t="n">
-        <v>224</v>
+        <v>197.3</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ZD Velenje</t>
+          <t>ZD Trbovlje</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>45694</v>
+        <v>15893</v>
       </c>
       <c r="C62" t="n">
-        <v>197</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ZD Trbovlje</t>
+          <t>ZD Zagorje</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>15893</v>
+        <v>16307</v>
       </c>
       <c r="C63" t="n">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>ZD Zagorje</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>16307</v>
-      </c>
-      <c r="C64" t="n">
-        <v>147</v>
+        <v>147.1</v>
       </c>
     </row>
   </sheetData>

--- a/data/population/hospitals.xlsx
+++ b/data/population/hospitals.xlsx
@@ -466,794 +466,794 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ZD Koper</t>
+          <t>ZD Bled</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>56744</v>
+        <v>11029</v>
       </c>
       <c r="C3" t="n">
-        <v>311.2</v>
+        <v>188.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ZD Bled</t>
+          <t>ZD Bohinj</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11029</v>
+        <v>5676</v>
       </c>
       <c r="C4" t="n">
-        <v>188.5</v>
+        <v>333.7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ZD Cerknica</t>
+          <t>ZD Brežice</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16952</v>
+        <v>24370</v>
       </c>
       <c r="C5" t="n">
-        <v>482.9</v>
+        <v>268.1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ZD Bohinj</t>
+          <t>ZD Celje</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5676</v>
+        <v>64415</v>
       </c>
       <c r="C6" t="n">
-        <v>333.7</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ZD Vrhnika</t>
+          <t>ZD Cerknica</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25994</v>
+        <v>16952</v>
       </c>
       <c r="C7" t="n">
-        <v>168.9</v>
+        <v>482.9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ZD Tolmin</t>
+          <t>ZD Domžale</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18175</v>
+        <v>60792</v>
       </c>
       <c r="C8" t="n">
-        <v>942.2</v>
+        <v>239.6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ZD Nova Gorica</t>
+          <t>ZD Dravograd</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>58314</v>
+        <v>8882</v>
       </c>
       <c r="C9" t="n">
-        <v>605.2</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ZD Ljubljana</t>
+          <t>ZD Gornja Radgona</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>347574</v>
+        <v>19943</v>
       </c>
       <c r="C10" t="n">
-        <v>723</v>
+        <v>213.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ZD Kranj</t>
+          <t>ZD Grosuplje</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>83291</v>
+        <v>25204</v>
       </c>
       <c r="C11" t="n">
-        <v>453.3</v>
+        <v>236.9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ZD Idrija</t>
+          <t>ZD Hrastnik</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>16275</v>
+        <v>8963</v>
       </c>
       <c r="C12" t="n">
-        <v>425.1</v>
+        <v>58.6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ZD Črnomelj</t>
+          <t>ZD Idrija</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>18143</v>
+        <v>16275</v>
       </c>
       <c r="C13" t="n">
-        <v>486.4</v>
+        <v>425.1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ZD Sežana</t>
+          <t>ZD Ilirska Bistrica</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26817</v>
+        <v>13399</v>
       </c>
       <c r="C14" t="n">
-        <v>660</v>
+        <v>480</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ZD Grosuplje</t>
+          <t>ZD Ivančna Gorica</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>25204</v>
+        <v>17599</v>
       </c>
       <c r="C15" t="n">
-        <v>236.9</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ZD Novo mesto</t>
+          <t>ZD Izola</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>67069</v>
+        <v>16647</v>
       </c>
       <c r="C16" t="n">
-        <v>777.3</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ZD Domžale</t>
+          <t>ZD Jesenice</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>60792</v>
+        <v>26237</v>
       </c>
       <c r="C17" t="n">
-        <v>239.6</v>
+        <v>118.4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ZD Škofja Loka</t>
+          <t>ZD Kamnik</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>42969</v>
+        <v>36275</v>
       </c>
       <c r="C18" t="n">
-        <v>512.2</v>
+        <v>289.7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ZD Ilirska Bistrica</t>
+          <t>ZD Koper</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>13399</v>
+        <v>56744</v>
       </c>
       <c r="C19" t="n">
-        <v>480</v>
+        <v>311.2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ZD Ivančna Gorica</t>
+          <t>ZD Kočevje</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>17599</v>
+        <v>16622</v>
       </c>
       <c r="C20" t="n">
-        <v>227</v>
+        <v>647.7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ZD Izola</t>
+          <t>ZD Kranj</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>16647</v>
+        <v>83291</v>
       </c>
       <c r="C21" t="n">
-        <v>28.6</v>
+        <v>453.3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ZD Jesenice</t>
+          <t>ZD Kranjska Gora</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>26237</v>
+        <v>7689</v>
       </c>
       <c r="C22" t="n">
-        <v>118.4</v>
+        <v>256.3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ZD Kamnik</t>
+          <t>ZD Krško</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>36275</v>
+        <v>28286</v>
       </c>
       <c r="C23" t="n">
-        <v>289.7</v>
+        <v>344.8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ZD Kočevje</t>
+          <t>ZD Laško</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>16622</v>
+        <v>12976</v>
       </c>
       <c r="C24" t="n">
-        <v>647.7</v>
+        <v>197.5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ZD Kranjska Gora</t>
+          <t>ZD Lenart</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>7689</v>
+        <v>20062</v>
       </c>
       <c r="C25" t="n">
-        <v>256.3</v>
+        <v>204.5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ZD Litija</t>
+          <t>ZD Lendava</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>21420</v>
+        <v>22224</v>
       </c>
       <c r="C26" t="n">
-        <v>316.3</v>
+        <v>256.8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ZD Logatec</t>
+          <t>ZD Litija</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>14699</v>
+        <v>21420</v>
       </c>
       <c r="C27" t="n">
-        <v>173.1</v>
+        <v>316.3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ZD Ribnica</t>
+          <t>ZD Ljubljana</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>18344</v>
+        <v>347574</v>
       </c>
       <c r="C28" t="n">
-        <v>440.8</v>
+        <v>723</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ZD Medvode</t>
+          <t>ZD Ljutomer</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>16792</v>
+        <v>17284</v>
       </c>
       <c r="C29" t="n">
-        <v>77.59999999999999</v>
+        <v>175.2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ZD Metlika</t>
+          <t>ZD Logatec</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>8452</v>
+        <v>14699</v>
       </c>
       <c r="C30" t="n">
-        <v>108.9</v>
+        <v>173.1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ZD Trebnje</t>
+          <t>ZD Maribor</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>22206</v>
+        <v>186034</v>
       </c>
       <c r="C31" t="n">
-        <v>317.1</v>
+        <v>738.4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ZD Piran</t>
+          <t>ZD Medvode</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>18432</v>
+        <v>16792</v>
       </c>
       <c r="C32" t="n">
-        <v>44.6</v>
+        <v>77.59999999999999</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ZD Postojna</t>
+          <t>ZD Metlika</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>22983</v>
+        <v>8452</v>
       </c>
       <c r="C33" t="n">
-        <v>493.2</v>
+        <v>108.9</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ZD Radovljica</t>
+          <t>ZD Murska Sobota</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19325</v>
+        <v>54775</v>
       </c>
       <c r="C34" t="n">
-        <v>118.7</v>
+        <v>691.7</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ZD Tržič</t>
+          <t>ZD Nova Gorica</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>15011</v>
+        <v>58314</v>
       </c>
       <c r="C35" t="n">
-        <v>155.4</v>
+        <v>605.2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ZD Gornja Radgona</t>
+          <t>ZD Novo mesto</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19943</v>
+        <v>67069</v>
       </c>
       <c r="C36" t="n">
-        <v>213.5</v>
+        <v>777.3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ZD Murska Sobota</t>
+          <t>ZD Ormož</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>54775</v>
+        <v>15809</v>
       </c>
       <c r="C37" t="n">
-        <v>691.7</v>
+        <v>212.4</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ZD Lenart</t>
+          <t>ZD Piran</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>20062</v>
+        <v>18432</v>
       </c>
       <c r="C38" t="n">
-        <v>204.5</v>
+        <v>44.6</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ZD Šmarje pri Jelšah</t>
+          <t>ZD Postojna</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>32901</v>
+        <v>22983</v>
       </c>
       <c r="C39" t="n">
-        <v>400.2</v>
+        <v>493.2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ZD Žalec</t>
+          <t>ZD Ptuj</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>43211</v>
+        <v>69379</v>
       </c>
       <c r="C40" t="n">
-        <v>334.8</v>
+        <v>646.7</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ZD Brežice</t>
+          <t>ZD Radeče</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>24370</v>
+        <v>4146</v>
       </c>
       <c r="C41" t="n">
-        <v>268.1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ZD Celje</t>
+          <t>ZD Radlje ob Dravi</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>64415</v>
+        <v>15713</v>
       </c>
       <c r="C42" t="n">
-        <v>230</v>
+        <v>346</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ZD Ptuj</t>
+          <t>ZD Radovljica</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>69379</v>
+        <v>19325</v>
       </c>
       <c r="C43" t="n">
-        <v>646.7</v>
+        <v>118.7</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ZD Lendava</t>
+          <t>ZD Ravne na Koroškem</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>22224</v>
+        <v>24728</v>
       </c>
       <c r="C44" t="n">
-        <v>256.8</v>
+        <v>303.9</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ZD Ravne na Koroškem</t>
+          <t>ZD Ribnica</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>24728</v>
+        <v>18344</v>
       </c>
       <c r="C45" t="n">
-        <v>303.9</v>
+        <v>440.8</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ZD Šentjur</t>
+          <t>ZD Sevnica</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>20320</v>
+        <v>17661</v>
       </c>
       <c r="C46" t="n">
-        <v>239.8</v>
+        <v>272.2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ZD Dravograd</t>
+          <t>ZD Sežana</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>8882</v>
+        <v>26817</v>
       </c>
       <c r="C47" t="n">
-        <v>105</v>
+        <v>660</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ZD Maribor</t>
+          <t>ZD Slovenj Gradec</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>186034</v>
+        <v>21248</v>
       </c>
       <c r="C48" t="n">
-        <v>738.4</v>
+        <v>285.9</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ZSDZ NAZARJE</t>
+          <t>ZD Slovenska Bistrica</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>16480</v>
+        <v>36714</v>
       </c>
       <c r="C49" t="n">
-        <v>508.3</v>
+        <v>367.7</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ZD Hrastnik</t>
+          <t>ZD Slovenske Konjice</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>8963</v>
+        <v>24063</v>
       </c>
       <c r="C50" t="n">
-        <v>58.6</v>
+        <v>224.2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ZD Krško</t>
+          <t>ZD Tolmin</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>28286</v>
+        <v>18175</v>
       </c>
       <c r="C51" t="n">
-        <v>344.8</v>
+        <v>942.2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ZD Ljutomer</t>
+          <t>ZD Trbovlje</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>17284</v>
+        <v>15893</v>
       </c>
       <c r="C52" t="n">
-        <v>175.2</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ZD Laško</t>
+          <t>ZD Trebnje</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>12976</v>
+        <v>22206</v>
       </c>
       <c r="C53" t="n">
-        <v>197.5</v>
+        <v>317.1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ZD Slovenska Bistrica</t>
+          <t>ZD Tržič</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>36714</v>
+        <v>15011</v>
       </c>
       <c r="C54" t="n">
-        <v>367.7</v>
+        <v>155.4</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ZD Slovenj Gradec</t>
+          <t>ZD Velenje</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>21248</v>
+        <v>45694</v>
       </c>
       <c r="C55" t="n">
-        <v>285.9</v>
+        <v>197.3</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ZD Radlje ob Dravi</t>
+          <t>ZD Vrhnika</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>15713</v>
+        <v>25994</v>
       </c>
       <c r="C56" t="n">
-        <v>346</v>
+        <v>168.9</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ZD Ormož</t>
+          <t>ZD Zagorje</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>15809</v>
+        <v>16307</v>
       </c>
       <c r="C57" t="n">
-        <v>212.4</v>
+        <v>147.1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ZD Radeče</t>
+          <t>ZD Črnomelj</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>4146</v>
+        <v>18143</v>
       </c>
       <c r="C58" t="n">
-        <v>52</v>
+        <v>486.4</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ZD Sevnica</t>
+          <t>ZD Šentjur</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>17661</v>
+        <v>20320</v>
       </c>
       <c r="C59" t="n">
-        <v>272.2</v>
+        <v>239.8</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ZD Slovenske Konjice</t>
+          <t>ZD Škofja Loka</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>24063</v>
+        <v>42969</v>
       </c>
       <c r="C60" t="n">
-        <v>224.2</v>
+        <v>512.2</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ZD Velenje</t>
+          <t>ZD Šmarje pri Jelšah</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>45694</v>
+        <v>32901</v>
       </c>
       <c r="C61" t="n">
-        <v>197.3</v>
+        <v>400.2</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ZD Trbovlje</t>
+          <t>ZD Žalec</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>15893</v>
+        <v>43211</v>
       </c>
       <c r="C62" t="n">
-        <v>58</v>
+        <v>334.8</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ZD Zagorje</t>
+          <t>ZSDZ NAZARJE</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>16307</v>
+        <v>16480</v>
       </c>
       <c r="C63" t="n">
-        <v>147.1</v>
+        <v>508.3</v>
       </c>
     </row>
   </sheetData>
